--- a/Datos_Prueba/Resultados/Test_FMT4/Excel_Filas_Ordenadas_4_ASC.xlsx
+++ b/Datos_Prueba/Resultados/Test_FMT4/Excel_Filas_Ordenadas_4_ASC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarciar\Documents\CAIXA\AutoHotKeyEGR\Datos_Prueba\Resultados\Test_FMT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFBBB854-4582-4526-8E66-EF26AADC8598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C683B9A3-92C4-4A38-8B3B-8B9403EF6CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24800" yWindow="740" windowWidth="17570" windowHeight="8220" xr2:uid="{96CCD57F-E10F-45E4-8CE2-7F4BE8124675}"/>
+    <workbookView xWindow="24800" yWindow="740" windowWidth="17570" windowHeight="8220" xr2:uid="{6B394C0F-BA3A-4656-BE7A-023E8D123D8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Albert</t>
   </si>
@@ -92,6 +92,21 @@
     <t>dderrick@timepath.co.uk</t>
   </si>
   <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>IT Solutions</t>
+  </si>
+  <si>
+    <t>98 North Road</t>
+  </si>
+  <si>
+    <t>jsmith@itsolutions.co.uk</t>
+  </si>
+  <si>
     <t>Stacy</t>
   </si>
   <si>
@@ -174,6 +189,18 @@
   </si>
   <si>
     <t>jmarlowe@aperture.us</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Norton</t>
+  </si>
+  <si>
+    <t>13 White Rabbit Street</t>
+  </si>
+  <si>
+    <t>mnorton@aperture.us</t>
   </si>
 </sst>
 </file>
@@ -524,7 +551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B463E9-102B-47DE-AFFA-D98026F51EC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AD4B58-7600-4D8C-A4BA-16ECFA834CA5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -602,45 +629,45 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>40799885412</v>
+        <v>40716543298</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>40741785214</v>
@@ -648,22 +675,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>40733652145</v>
@@ -671,22 +698,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>40791345621</v>
@@ -694,22 +721,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>40731653845</v>
@@ -717,22 +744,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>40733154268</v>
@@ -740,25 +767,25 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G10">
-        <v>40733154268</v>
+        <v>40731254562</v>
       </c>
     </row>
   </sheetData>
